--- a/Code/Results/Cases/Case_8_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011382836134412</v>
+        <v>1.007635059402575</v>
       </c>
       <c r="D2">
-        <v>1.031359202525945</v>
+        <v>1.028396425422628</v>
       </c>
       <c r="E2">
-        <v>1.015771312112213</v>
+        <v>1.012654312006366</v>
       </c>
       <c r="F2">
-        <v>1.037375771445125</v>
+        <v>1.035066665390158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048546678046664</v>
+        <v>1.047402315787481</v>
       </c>
       <c r="J2">
-        <v>1.033228338245079</v>
+        <v>1.029589780867997</v>
       </c>
       <c r="K2">
-        <v>1.042398280074132</v>
+        <v>1.039473835499795</v>
       </c>
       <c r="L2">
-        <v>1.027015214546295</v>
+        <v>1.023940122862903</v>
       </c>
       <c r="M2">
-        <v>1.048337847924604</v>
+        <v>1.046058161931033</v>
       </c>
       <c r="N2">
-        <v>1.034695640998349</v>
+        <v>1.026187960821529</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04682852742593</v>
+        <v>1.045024322258871</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041049539046168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038990464629109</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022244636403693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016742675420035</v>
+        <v>1.012109393087828</v>
       </c>
       <c r="D3">
-        <v>1.034890836162985</v>
+        <v>1.031239821238311</v>
       </c>
       <c r="E3">
-        <v>1.02017588757593</v>
+        <v>1.016273379887781</v>
       </c>
       <c r="F3">
-        <v>1.040811996443524</v>
+        <v>1.037956446579659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049688175151893</v>
+        <v>1.048230735262482</v>
       </c>
       <c r="J3">
-        <v>1.036787095699043</v>
+        <v>1.032275300367647</v>
       </c>
       <c r="K3">
-        <v>1.045095928227131</v>
+        <v>1.04148799687093</v>
       </c>
       <c r="L3">
-        <v>1.030556961928538</v>
+        <v>1.026702189339365</v>
       </c>
       <c r="M3">
-        <v>1.050948010511751</v>
+        <v>1.048125652647955</v>
       </c>
       <c r="N3">
-        <v>1.038259452296077</v>
+        <v>1.027693670297534</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048894275291556</v>
+        <v>1.046660590530201</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042954346586536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040411709139115</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022712496972102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020135395833795</v>
+        <v>1.014948745155269</v>
       </c>
       <c r="D4">
-        <v>1.037129925280323</v>
+        <v>1.033047483695068</v>
       </c>
       <c r="E4">
-        <v>1.022969330058527</v>
+        <v>1.018575411155644</v>
       </c>
       <c r="F4">
-        <v>1.042994106281904</v>
+        <v>1.039796509495594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050400265421813</v>
+        <v>1.048746462617167</v>
       </c>
       <c r="J4">
-        <v>1.039037693252661</v>
+        <v>1.033977639103453</v>
       </c>
       <c r="K4">
-        <v>1.046799962376532</v>
+        <v>1.042762767502893</v>
       </c>
       <c r="L4">
-        <v>1.032798219373826</v>
+        <v>1.028454699688869</v>
       </c>
       <c r="M4">
-        <v>1.052599909967713</v>
+        <v>1.049437227801925</v>
       </c>
       <c r="N4">
-        <v>1.040513245956369</v>
+        <v>1.028648123488526</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050201626810628</v>
+        <v>1.047698604822837</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044160127610157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041314051821266</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023005899834605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02155100865615</v>
+        <v>1.016134539307308</v>
       </c>
       <c r="D5">
-        <v>1.038067360190776</v>
+        <v>1.033805544799288</v>
       </c>
       <c r="E5">
-        <v>1.024137108774531</v>
+        <v>1.019538927750743</v>
       </c>
       <c r="F5">
-        <v>1.043907058210112</v>
+        <v>1.04056732666196</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050697083640261</v>
+        <v>1.048961515220689</v>
       </c>
       <c r="J5">
-        <v>1.039978295789429</v>
+        <v>1.034690000470271</v>
       </c>
       <c r="K5">
-        <v>1.047513427196615</v>
+        <v>1.043297579519859</v>
       </c>
       <c r="L5">
-        <v>1.033735170518303</v>
+        <v>1.029188283136885</v>
       </c>
       <c r="M5">
-        <v>1.053290884372659</v>
+        <v>1.049986643739321</v>
       </c>
       <c r="N5">
-        <v>1.041455184256628</v>
+        <v>1.029047522237516</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050748479291209</v>
+        <v>1.048133426286058</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044671728893317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04170006213947</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023129143805991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021795797303554</v>
+        <v>1.016339032123884</v>
       </c>
       <c r="D6">
-        <v>1.038232400009098</v>
+        <v>1.033939228695333</v>
       </c>
       <c r="E6">
-        <v>1.024340297018944</v>
+        <v>1.019706210230981</v>
       </c>
       <c r="F6">
-        <v>1.044066062690984</v>
+        <v>1.040701449185881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050751017483583</v>
+        <v>1.04900102890219</v>
       </c>
       <c r="J6">
-        <v>1.040143442381622</v>
+        <v>1.034815125969843</v>
       </c>
       <c r="K6">
-        <v>1.047640832979837</v>
+        <v>1.043393753537307</v>
       </c>
       <c r="L6">
-        <v>1.033899594117377</v>
+        <v>1.029316956964002</v>
       </c>
       <c r="M6">
-        <v>1.053412607916278</v>
+        <v>1.050083585046769</v>
       </c>
       <c r="N6">
-        <v>1.041620565375924</v>
+        <v>1.029117676064368</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050844813963904</v>
+        <v>1.048210148025867</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044770503498174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041777645704154</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023152252834809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020176313904475</v>
+        <v>1.015021647432385</v>
       </c>
       <c r="D7">
-        <v>1.037164808004825</v>
+        <v>1.033106279966209</v>
       </c>
       <c r="E7">
-        <v>1.023006310968585</v>
+        <v>1.018643712397615</v>
       </c>
       <c r="F7">
-        <v>1.043023299315486</v>
+        <v>1.039845797958222</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050416330629445</v>
+        <v>1.04877551277439</v>
       </c>
       <c r="J7">
-        <v>1.03907171219822</v>
+        <v>1.034042796807963</v>
       </c>
       <c r="K7">
-        <v>1.046831602332078</v>
+        <v>1.042818035980442</v>
       </c>
       <c r="L7">
-        <v>1.032831867376158</v>
+        <v>1.028519285672415</v>
       </c>
       <c r="M7">
-        <v>1.05262594874865</v>
+        <v>1.049483127845933</v>
       </c>
       <c r="N7">
-        <v>1.040547313212733</v>
+        <v>1.028736760799605</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050222234487062</v>
+        <v>1.047734931271182</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04420249222545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041375172816519</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023025435796221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013238430762794</v>
+        <v>1.009309294475434</v>
       </c>
       <c r="D8">
-        <v>1.032590933411331</v>
+        <v>1.029484673219935</v>
       </c>
       <c r="E8">
-        <v>1.017299353562592</v>
+        <v>1.014031901618696</v>
       </c>
       <c r="F8">
-        <v>1.038567505085595</v>
+        <v>1.03614813090158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048953529562666</v>
+        <v>1.047751517940643</v>
       </c>
       <c r="J8">
-        <v>1.034469461767166</v>
+        <v>1.030650857625401</v>
       </c>
       <c r="K8">
-        <v>1.043346819841014</v>
+        <v>1.040279534826539</v>
       </c>
       <c r="L8">
-        <v>1.028249983903944</v>
+        <v>1.025025098132322</v>
       </c>
       <c r="M8">
-        <v>1.049249217948664</v>
+        <v>1.04685974157966</v>
       </c>
       <c r="N8">
-        <v>1.035938527058181</v>
+        <v>1.026941048023958</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047549809081465</v>
+        <v>1.045658714582574</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0417430492475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039585285042603</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02244907774067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000363519108959</v>
+        <v>0.9986400715157252</v>
       </c>
       <c r="D9">
-        <v>1.024122787345886</v>
+        <v>1.022721381569344</v>
       </c>
       <c r="E9">
-        <v>1.006749050581992</v>
+        <v>1.00543712728421</v>
       </c>
       <c r="F9">
-        <v>1.030354261632334</v>
+        <v>1.029292833521265</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0461453242951</v>
+        <v>1.045720484781022</v>
       </c>
       <c r="J9">
-        <v>1.025903447106588</v>
+        <v>1.024240943929184</v>
       </c>
       <c r="K9">
-        <v>1.036836247980364</v>
+        <v>1.03545627077709</v>
       </c>
       <c r="L9">
-        <v>1.019733570014272</v>
+        <v>1.018442602550318</v>
       </c>
       <c r="M9">
-        <v>1.042973336851361</v>
+        <v>1.041927882897263</v>
       </c>
       <c r="N9">
-        <v>1.027360347674249</v>
+        <v>1.023366699195988</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042582901159446</v>
+        <v>1.041755496360573</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037136478146142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036171478177144</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02131394869614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9914345225578213</v>
+        <v>0.9914854680580972</v>
       </c>
       <c r="D10">
-        <v>1.018310279890258</v>
+        <v>1.018267043414739</v>
       </c>
       <c r="E10">
-        <v>0.999485921522672</v>
+        <v>0.9997576713195296</v>
       </c>
       <c r="F10">
-        <v>1.024782220803438</v>
+        <v>1.024811930643668</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044184741211947</v>
+        <v>1.044388557920377</v>
       </c>
       <c r="J10">
-        <v>1.019992150671714</v>
+        <v>1.020041025130716</v>
       </c>
       <c r="K10">
-        <v>1.032356623410451</v>
+        <v>1.032314131743716</v>
       </c>
       <c r="L10">
-        <v>1.013864464022751</v>
+        <v>1.014131302464386</v>
       </c>
       <c r="M10">
-        <v>1.038717990915255</v>
+        <v>1.038747197317768</v>
       </c>
       <c r="N10">
-        <v>1.021440656520403</v>
+        <v>1.021246014223157</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039266471254953</v>
+        <v>1.03928958476539</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033985909364046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033968298514888</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020594177097035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9883943613820602</v>
+        <v>0.9892710903834072</v>
       </c>
       <c r="D11">
-        <v>1.016595398889568</v>
+        <v>1.017174979213716</v>
       </c>
       <c r="E11">
-        <v>0.9971726108495217</v>
+        <v>0.9981885646019164</v>
       </c>
       <c r="F11">
-        <v>1.023514728278462</v>
+        <v>1.024052325606295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043806056571595</v>
+        <v>1.044293123303203</v>
       </c>
       <c r="J11">
-        <v>1.018258047521884</v>
+        <v>1.019097117692439</v>
       </c>
       <c r="K11">
-        <v>1.031210992552323</v>
+        <v>1.03178010962922</v>
       </c>
       <c r="L11">
-        <v>1.012148045292804</v>
+        <v>1.013144722983751</v>
       </c>
       <c r="M11">
-        <v>1.038006410246609</v>
+        <v>1.038534471203495</v>
       </c>
       <c r="N11">
-        <v>1.019704090745196</v>
+        <v>1.021163309945437</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039139211911744</v>
+        <v>1.039556901763765</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033208808245858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033626838372149</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020597372691596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9875976802795846</v>
+        <v>0.9886858703156887</v>
       </c>
       <c r="D12">
-        <v>1.016268791246968</v>
+        <v>1.017002360006935</v>
       </c>
       <c r="E12">
-        <v>0.9966459363751503</v>
+        <v>0.9978448923789588</v>
       </c>
       <c r="F12">
-        <v>1.023477871682289</v>
+        <v>1.024142076718919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043850411981698</v>
+        <v>1.04439579545114</v>
       </c>
       <c r="J12">
-        <v>1.017936363965888</v>
+        <v>1.018976904834315</v>
       </c>
       <c r="K12">
-        <v>1.031090806034695</v>
+        <v>1.031810913431871</v>
       </c>
       <c r="L12">
-        <v>1.011837678301378</v>
+        <v>1.01301349764791</v>
       </c>
       <c r="M12">
-        <v>1.038168684140065</v>
+        <v>1.038820921691123</v>
       </c>
       <c r="N12">
-        <v>1.019381950361653</v>
+        <v>1.021289805667136</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039593682155614</v>
+        <v>1.040109419946656</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033123832114869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033648617270469</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02068694909252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9885106486852684</v>
+        <v>0.9892897867888557</v>
       </c>
       <c r="D13">
-        <v>1.017021718188077</v>
+        <v>1.017510693750187</v>
       </c>
       <c r="E13">
-        <v>0.997489669796034</v>
+        <v>0.9983936117934638</v>
       </c>
       <c r="F13">
-        <v>1.024421319314814</v>
+        <v>1.024887383832953</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044244959171015</v>
+        <v>1.044655770924933</v>
       </c>
       <c r="J13">
-        <v>1.018714913390613</v>
+        <v>1.019460134603998</v>
       </c>
       <c r="K13">
-        <v>1.031786952359023</v>
+        <v>1.032266999409822</v>
       </c>
       <c r="L13">
-        <v>1.012620926159778</v>
+        <v>1.01350751491382</v>
       </c>
       <c r="M13">
-        <v>1.039052623542428</v>
+        <v>1.039510336559696</v>
       </c>
       <c r="N13">
-        <v>1.020161605415862</v>
+        <v>1.021517741926212</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040568977133519</v>
+        <v>1.040930809622542</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033613534629455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033968340517637</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020846498205848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9899228849412587</v>
+        <v>0.9902590717772362</v>
       </c>
       <c r="D14">
-        <v>1.018037449278318</v>
+        <v>1.018182643408508</v>
       </c>
       <c r="E14">
-        <v>0.998699948468959</v>
+        <v>0.9991908620380872</v>
       </c>
       <c r="F14">
-        <v>1.025524348377194</v>
+        <v>1.025711314217364</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044678998038209</v>
+        <v>1.044913759004428</v>
       </c>
       <c r="J14">
-        <v>1.019757239637671</v>
+        <v>1.020079017655993</v>
       </c>
       <c r="K14">
-        <v>1.032643571798107</v>
+        <v>1.032786149496101</v>
       </c>
       <c r="L14">
-        <v>1.013663424681274</v>
+        <v>1.014145042581637</v>
       </c>
       <c r="M14">
-        <v>1.039996807920095</v>
+        <v>1.04018046826186</v>
       </c>
       <c r="N14">
-        <v>1.021205411885746</v>
+        <v>1.021728607724725</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041488449746086</v>
+        <v>1.041633617866337</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034220621904746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034336955022915</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020993556324982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9906485233469901</v>
+        <v>0.990768549035191</v>
       </c>
       <c r="D15">
-        <v>1.018531501198059</v>
+        <v>1.018510712179944</v>
       </c>
       <c r="E15">
-        <v>0.9993027689814931</v>
+        <v>0.999594722870185</v>
       </c>
       <c r="F15">
-        <v>1.026024274754547</v>
+        <v>1.026076404258717</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04486758023888</v>
+        <v>1.045020540479383</v>
       </c>
       <c r="J15">
-        <v>1.020262098130593</v>
+        <v>1.020377027178781</v>
       </c>
       <c r="K15">
-        <v>1.033042167490454</v>
+        <v>1.033021750147246</v>
       </c>
       <c r="L15">
-        <v>1.014165845242225</v>
+        <v>1.014452316037612</v>
       </c>
       <c r="M15">
-        <v>1.040402253187367</v>
+        <v>1.040453468337437</v>
       </c>
       <c r="N15">
-        <v>1.021710987335636</v>
+        <v>1.021815169189671</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041846402792666</v>
+        <v>1.041886883019815</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034508320618746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03450997719075</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021051120096486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9942694498323797</v>
+        <v>0.9934066432755215</v>
       </c>
       <c r="D16">
-        <v>1.020860396856799</v>
+        <v>1.020092928273552</v>
       </c>
       <c r="E16">
-        <v>1.002219936599076</v>
+        <v>1.001621442081478</v>
       </c>
       <c r="F16">
-        <v>1.028238818675248</v>
+        <v>1.027684963855512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045640825509817</v>
+        <v>1.045442077937736</v>
       </c>
       <c r="J16">
-        <v>1.022634769882911</v>
+        <v>1.021806688871303</v>
       </c>
       <c r="K16">
-        <v>1.034827352469003</v>
+        <v>1.034072993020267</v>
       </c>
       <c r="L16">
-        <v>1.0165126644872</v>
+        <v>1.015924890611311</v>
       </c>
       <c r="M16">
-        <v>1.042081030382946</v>
+        <v>1.041536459193799</v>
       </c>
       <c r="N16">
-        <v>1.024087028553992</v>
+        <v>1.022210569242095</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043134654485714</v>
+        <v>1.042704215453103</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035773672477832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035256706599224</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021258824078234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9963071363466403</v>
+        <v>0.9949671813048727</v>
       </c>
       <c r="D17">
-        <v>1.022115558836941</v>
+        <v>1.020988474274922</v>
       </c>
       <c r="E17">
-        <v>1.003825789158515</v>
+        <v>1.002802016763802</v>
       </c>
       <c r="F17">
-        <v>1.029355363632713</v>
+        <v>1.028510540910339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.020000000000001</v>
+      </c>
       <c r="I17">
-        <v>1.046004149599236</v>
+        <v>1.045643452375301</v>
       </c>
       <c r="J17">
-        <v>1.023907969283478</v>
+        <v>1.022620146667017</v>
       </c>
       <c r="K17">
-        <v>1.03574662395724</v>
+        <v>1.034638242185332</v>
       </c>
       <c r="L17">
-        <v>1.017767069315036</v>
+        <v>1.016761094200989</v>
       </c>
       <c r="M17">
-        <v>1.042867546286346</v>
+        <v>1.042036485285082</v>
       </c>
       <c r="N17">
-        <v>1.025362036043747</v>
+        <v>1.022478056453315</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043627561465752</v>
+        <v>1.042970610307075</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036426214100618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035659192555779</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021350519881069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9971530489322507</v>
+        <v>0.9956676207801411</v>
       </c>
       <c r="D18">
-        <v>1.022532439082287</v>
+        <v>1.021299686333321</v>
       </c>
       <c r="E18">
-        <v>1.004427962983098</v>
+        <v>1.003282381391495</v>
       </c>
       <c r="F18">
-        <v>1.029578112688877</v>
+        <v>1.028647756489965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046030898341242</v>
+        <v>1.045632635186946</v>
       </c>
       <c r="J18">
-        <v>1.024324043785168</v>
+        <v>1.022895305267547</v>
       </c>
       <c r="K18">
-        <v>1.03597324675177</v>
+        <v>1.034760616086486</v>
       </c>
       <c r="L18">
-        <v>1.018170699256004</v>
+        <v>1.017044696174998</v>
       </c>
       <c r="M18">
-        <v>1.042905100430244</v>
+        <v>1.041989659144393</v>
       </c>
       <c r="N18">
-        <v>1.025778701418953</v>
+        <v>1.022549728765089</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043420108341684</v>
+        <v>1.042696304545762</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036574810326345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035732939373201</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021322560142128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9969620021393779</v>
+        <v>0.9955834703535311</v>
       </c>
       <c r="D19">
-        <v>1.022232030252114</v>
+        <v>1.021087378360141</v>
       </c>
       <c r="E19">
-        <v>1.004165020882935</v>
+        <v>1.003126389352298</v>
       </c>
       <c r="F19">
-        <v>1.029018085257397</v>
+        <v>1.02815811792614</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045779826947802</v>
+        <v>1.045437232089945</v>
       </c>
       <c r="J19">
-        <v>1.024004973099803</v>
+        <v>1.022678763747969</v>
       </c>
       <c r="K19">
-        <v>1.035615188760725</v>
+        <v>1.03448913318996</v>
       </c>
       <c r="L19">
-        <v>1.017848086145535</v>
+        <v>1.016827119613453</v>
       </c>
       <c r="M19">
-        <v>1.0422920848006</v>
+        <v>1.04144584849287</v>
       </c>
       <c r="N19">
-        <v>1.025459177616617</v>
+        <v>1.022405063238156</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042610690126602</v>
+        <v>1.041941386306097</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036328046760202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035548018104979</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021192230257419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.993821873428151</v>
+        <v>0.9932606846858338</v>
       </c>
       <c r="D20">
-        <v>1.019884546463422</v>
+        <v>1.019374110639146</v>
       </c>
       <c r="E20">
-        <v>1.001436224508578</v>
+        <v>1.001150574133735</v>
       </c>
       <c r="F20">
-        <v>1.026280689520159</v>
+        <v>1.025931500757658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044734467656826</v>
+        <v>1.04471314760754</v>
       </c>
       <c r="J20">
-        <v>1.021593046547984</v>
+        <v>1.021053890514287</v>
       </c>
       <c r="K20">
-        <v>1.033586534946541</v>
+        <v>1.033084634684048</v>
       </c>
       <c r="L20">
-        <v>1.015453866564515</v>
+        <v>1.015173222208856</v>
       </c>
       <c r="M20">
-        <v>1.039876646851175</v>
+        <v>1.039533202827038</v>
       </c>
       <c r="N20">
-        <v>1.023043825852443</v>
+        <v>1.021617635372919</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040172885575948</v>
+        <v>1.039901085914627</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034897646982775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034559313258957</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020765765158128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9868940118216406</v>
+        <v>0.9883784395456077</v>
       </c>
       <c r="D21">
-        <v>1.015334516718162</v>
+        <v>1.016392987380705</v>
       </c>
       <c r="E21">
-        <v>0.995785959013199</v>
+        <v>0.9973822141302757</v>
       </c>
       <c r="F21">
-        <v>1.02185426278037</v>
+        <v>1.022782139644366</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043137889703957</v>
+        <v>1.0438862513183</v>
       </c>
       <c r="J21">
-        <v>1.016950095956013</v>
+        <v>1.018370219501011</v>
       </c>
       <c r="K21">
-        <v>1.030031081494231</v>
+        <v>1.031070305683677</v>
       </c>
       <c r="L21">
-        <v>1.010847609929054</v>
+        <v>1.012413351568134</v>
       </c>
       <c r="M21">
-        <v>1.036433100092147</v>
+        <v>1.037344380646042</v>
       </c>
       <c r="N21">
-        <v>1.018394281738076</v>
+        <v>1.020927651908186</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037406738614301</v>
+        <v>1.038127958821115</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032387058366699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033138678716144</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020353612626551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9824517246160079</v>
+        <v>0.9852494952762567</v>
       </c>
       <c r="D22">
-        <v>1.012431492554884</v>
+        <v>1.014503175395952</v>
       </c>
       <c r="E22">
-        <v>0.9921761068605877</v>
+        <v>0.9949829579043942</v>
       </c>
       <c r="F22">
-        <v>1.019063553613147</v>
+        <v>1.020817070327008</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042113740777814</v>
+        <v>1.043361336361876</v>
       </c>
       <c r="J22">
-        <v>1.013981929715889</v>
+        <v>1.01665103811109</v>
       </c>
       <c r="K22">
-        <v>1.0277606373582</v>
+        <v>1.029792694588496</v>
       </c>
       <c r="L22">
-        <v>1.007904166437333</v>
+        <v>1.010654462889519</v>
       </c>
       <c r="M22">
-        <v>1.034266586945257</v>
+        <v>1.035987117465144</v>
       </c>
       <c r="N22">
-        <v>1.015421900361439</v>
+        <v>1.02043919751462</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035692079252102</v>
+        <v>1.037053771656544</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030768203181414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032220517925448</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020095896768455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9847948003072483</v>
+        <v>0.9868270102769308</v>
       </c>
       <c r="D23">
-        <v>1.013954267889697</v>
+        <v>1.015433088625932</v>
       </c>
       <c r="E23">
-        <v>0.994075260465288</v>
+        <v>0.9961713880067948</v>
       </c>
       <c r="F23">
-        <v>1.020531316574384</v>
+        <v>1.021800591230813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042647440224692</v>
+        <v>1.043599721868315</v>
       </c>
       <c r="J23">
-        <v>1.015540749169346</v>
+        <v>1.017482386812134</v>
       </c>
       <c r="K23">
-        <v>1.028947735326325</v>
+        <v>1.030399010629327</v>
       </c>
       <c r="L23">
-        <v>1.009449451806472</v>
+        <v>1.011504493952947</v>
       </c>
       <c r="M23">
-        <v>1.035403072940925</v>
+        <v>1.036649093967554</v>
       </c>
       <c r="N23">
-        <v>1.016982933517319</v>
+        <v>1.020583207984286</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036591537200554</v>
+        <v>1.037577684001973</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031597861613847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032638605716967</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02020437733582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9938115312394562</v>
+        <v>0.9932603138488187</v>
       </c>
       <c r="D24">
-        <v>1.019842296157298</v>
+        <v>1.019339965467134</v>
       </c>
       <c r="E24">
-        <v>1.001408479916505</v>
+        <v>1.00113329063021</v>
       </c>
       <c r="F24">
-        <v>1.026209122736879</v>
+        <v>1.025866485567538</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044693430442324</v>
+        <v>1.044678187669164</v>
       </c>
       <c r="J24">
-        <v>1.021549900056099</v>
+        <v>1.021020293769827</v>
       </c>
       <c r="K24">
-        <v>1.03352969431615</v>
+        <v>1.033035753693495</v>
       </c>
       <c r="L24">
-        <v>1.015410906135026</v>
+        <v>1.015140533601739</v>
       </c>
       <c r="M24">
-        <v>1.039791095832293</v>
+        <v>1.039454089367148</v>
       </c>
       <c r="N24">
-        <v>1.02300061808759</v>
+        <v>1.02159082206622</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040064373626113</v>
+        <v>1.039797655393814</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034830016871874</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034494632869014</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02074124234389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003807253815199</v>
+        <v>1.001428626732291</v>
       </c>
       <c r="D25">
-        <v>1.02639616123483</v>
+        <v>1.024491200343084</v>
       </c>
       <c r="E25">
-        <v>1.009571172302874</v>
+        <v>1.007674095377354</v>
       </c>
       <c r="F25">
-        <v>1.032548223258099</v>
+        <v>1.031083422992311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046917897002865</v>
+        <v>1.046259554705195</v>
       </c>
       <c r="J25">
-        <v>1.02820716452402</v>
+        <v>1.025908007356978</v>
       </c>
       <c r="K25">
-        <v>1.03859807795608</v>
+        <v>1.036720856671199</v>
       </c>
       <c r="L25">
-        <v>1.022022703116167</v>
+        <v>1.02015443761443</v>
       </c>
       <c r="M25">
-        <v>1.044661440000388</v>
+        <v>1.043217637535869</v>
       </c>
       <c r="N25">
-        <v>1.029667336634654</v>
+        <v>1.024235120710611</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043918916544946</v>
+        <v>1.042776248189015</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038410754152927</v>
+        <v>1.037097000785658</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021612969250491</v>
       </c>
     </row>
   </sheetData>
